--- a/Data Files/Fix Bug/GSD-213/Auto_GSD-213.xlsx
+++ b/Data Files/Fix Bug/GSD-213/Auto_GSD-213.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Fix Bug\GSD-213\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD82E9D-6CB1-447F-81DD-099DB47E42DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83BDA94-E1A0-4CEC-9775-AD2D07F6A4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1770" yWindow="1770" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
   <si>
     <t>creationDate</t>
   </si>
@@ -284,7 +284,10 @@
     <t>[3164765717686|บริษัท|ทดสอบ|อัตโนมัติ||]</t>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>[3164765717686|บริษัท|ทดสอบ|อัตโนมัติ|0|O]</t>
+  </si>
+  <si>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>
@@ -871,7 +874,7 @@
         <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>50</v>
@@ -955,7 +958,7 @@
         <v>69</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="AK2" s="2" t="s">
         <v>70</v>
@@ -982,7 +985,7 @@
         <v>80</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AT2" s="2" t="s">
         <v>81</v>

--- a/Data Files/Fix Bug/GSD-213/Auto_GSD-213.xlsx
+++ b/Data Files/Fix Bug/GSD-213/Auto_GSD-213.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Fix Bug\GSD-213\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83BDA94-E1A0-4CEC-9775-AD2D07F6A4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457FBEE6-5FF6-4C7A-B997-1805F7F84C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="1770" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="7305" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -287,7 +287,7 @@
     <t>[3164765717686|บริษัท|ทดสอบ|อัตโนมัติ|0|O]</t>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
